--- a/web/src/main/resources/clueTemplateExcel.xlsx
+++ b/web/src/main/resources/clueTemplateExcel.xlsx
@@ -18,7 +18,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>姓名（必填）</t>
+    <t>性别（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -26,15 +30,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄（必填）</t>
+    <t>姓名（必填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别（必填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系地址（必填）</t>
+    <t>年龄（选填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,9 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -398,19 +396,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
